--- a/java/core/src/test/resources/UnitTest_CalcTable_Portrait_DataParser.xlsx
+++ b/java/core/src/test/resources/UnitTest_CalcTable_Portrait_DataParser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="19695" windowHeight="10485" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="19695" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UT - Data Primitive Types" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>numeric</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>3 # 1.3.2.2</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -330,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -352,16 +355,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -703,28 +709,28 @@
     </row>
     <row r="2" spans="1:21" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="14" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -932,10 +938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,9 +949,10 @@
     <col min="1" max="19" width="3.7109375" style="1" customWidth="1"/>
     <col min="20" max="20" width="3.7109375" style="2" customWidth="1"/>
     <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -967,219 +974,288 @@
       <c r="S1" s="10"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:21" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="14" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="V2" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="15">
+        <v>1</v>
+      </c>
+      <c r="V3" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+      <c r="V5" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="V6" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
+      <c r="V8" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="V9" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V11" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V12" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
+      <c r="V14" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="V15" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+      <c r="V17" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="V18" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+      <c r="V23" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="V24" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U25" t="s">
+      <c r="U26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
+      <c r="V26" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U26" t="s">
+      <c r="U27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="V27" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V29" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V30" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1196,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,34 +1306,34 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="13" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="12" t="s">
         <v>62</v>
       </c>
     </row>
